--- a/src/test/resources/testdata/BDDFrameworkTestDriver.xlsx
+++ b/src/test/resources/testdata/BDDFrameworkTestDriver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saura\eclipse-workspace\HybridFrameworkProjectTemplate\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saura\eclipse-workspace\BDDFrameworkProjectTemplate\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D670B551-72CD-4037-9CA8-05D33E6C6632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084AD78-6F5D-4902-9E10-25E1FA75560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>Choose Test (Smoke/Regression/Custom/Negative)</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Play course overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Java </t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>TC_0006_2</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>https://nirajt03.github.io/sample-website/</t>
   </si>
   <si>
@@ -412,13 +406,7 @@
     <t>pragyan@123</t>
   </si>
   <si>
-    <t>33.33 %</t>
-  </si>
-  <si>
-    <t>0.0 %</t>
-  </si>
-  <si>
-    <t>66.67 %</t>
+    <t xml:space="preserve">Java Fundamentals: The Java Language </t>
   </si>
 </sst>
 </file>
@@ -530,7 +518,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,16 +571,6 @@
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -760,7 +738,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="7" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,371 +824,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1509,8 +1125,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
@@ -1518,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1542,8 +1158,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.19921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1558,8 +1174,8 @@
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>82</v>
+      <c r="B2" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1593,12 +1209,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1637,7 +1253,7 @@
       <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s" s="387">
+      <c r="F2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1657,7 +1273,7 @@
       <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s" s="393">
+      <c r="F3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1677,7 +1293,7 @@
       <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s" s="399">
+      <c r="F4" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1697,7 +1313,7 @@
       <c r="E5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s" s="396">
+      <c r="F5" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1717,7 +1333,7 @@
       <c r="E6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s" s="402">
+      <c r="F6" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1737,7 +1353,7 @@
       <c r="E7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s" s="405">
+      <c r="F7" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1764,19 +1380,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.06640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.46484375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.06640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.46484375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1786,7 +1402,7 @@
       <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1809,19 +1425,19 @@
       <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="385" t="s">
+      <c r="G2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1830,21 +1446,21 @@
         <v>19</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="386" t="s">
+      <c r="G3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1870,12 +1486,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.06640625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.265625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.33203125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.6640625"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1914,7 +1530,7 @@
       <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="388" t="s">
+      <c r="F2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1934,7 +1550,7 @@
       <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="389" t="s">
+      <c r="F3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1950,7 +1566,7 @@
       <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="390" t="s">
+      <c r="F4" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1968,7 +1584,7 @@
       <c r="E5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="391" t="s">
+      <c r="F5" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1986,7 +1602,7 @@
       <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="392" t="s">
+      <c r="F6" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2011,14 +1627,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.59765625"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="36.06640625"/>
-    <col min="6" max="6" customWidth="true" width="69.46484375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.33203125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.59765625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.6640625"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.46484375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -2075,7 +1691,7 @@
       <c r="H2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="394" t="s">
+      <c r="I2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2084,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>23</v>
@@ -2104,7 +1720,7 @@
       <c r="H3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="395" t="s">
+      <c r="I3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2129,12 +1745,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.59765625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.06640625"/>
-    <col min="5" max="5" customWidth="true" width="59.59765625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.6640625"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -2173,7 +1789,7 @@
       <c r="E2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="397" t="s">
+      <c r="F2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2182,7 +1798,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>23</v>
@@ -2193,7 +1809,7 @@
       <c r="E3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="398" t="s">
+      <c r="F3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2213,16 +1829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8C79C5-CBC0-4DDF-9AC8-C72E09C8FEF2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.59765625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -2253,9 +1869,9 @@
         <v>22</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="400" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2264,15 +1880,15 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="401" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2292,17 +1908,17 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.59765625"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="36.06640625"/>
-    <col min="6" max="6" customWidth="true" style="36" width="69.53125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.6640625"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.53125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -2347,7 +1963,7 @@
       <c r="F2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="403" t="s">
+      <c r="G2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2356,7 +1972,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>23</v>
@@ -2370,7 +1986,7 @@
       <c r="F3" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="404" t="s">
+      <c r="G3" s="26" t="s">
         <v>59</v>
       </c>
     </row>
